--- a/data/ENVS2018 kioloa flora composition 2023.xlsx
+++ b/data/ENVS2018 kioloa flora composition 2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3a69dc1a79d235a/1 Ecology work/ENVS2018 2023/analyses/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3a69dc1a79d235a/2 PhD/GIT/ENVS2018-environmental-science-field-school/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="123" documentId="8_{714E2F0D-8236-4C5B-B96D-0EF27B1649C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D9BE3AD2-6875-427F-A56C-FCBFAD9E7D63}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-2040" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{2428CD3D-358A-499D-984A-0A30155D02D9}"/>
+    <workbookView xWindow="28695" yWindow="-2745" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{2428CD3D-358A-499D-984A-0A30155D02D9}"/>
   </bookViews>
   <sheets>
     <sheet name="big comp table" sheetId="7" r:id="rId1"/>
@@ -614,7 +614,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -668,7 +668,6 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -686,14 +685,10 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -731,7 +726,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -837,7 +832,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -979,7 +974,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -19716,7 +19711,7 @@
   <dimension ref="A1:W81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19725,7 +19720,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A1" s="37" t="s">
+      <c r="A1" t="s">
         <v>112</v>
       </c>
       <c r="B1" t="s">
